--- a/nombre_debit_departement.xlsx
+++ b/nombre_debit_departement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33749\PycharmProjects\ProjetPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A138E207-D80B-45CA-95BE-71A3C3EF003D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E46A94-11F0-45A8-BAFC-502EAFE49255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{FF5C97E7-51E6-4817-A9A9-0D75344007D8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>0,5 Mbit/s</t>
   </si>
@@ -54,6 +54,51 @@
   </si>
   <si>
     <t>1 Gbit/s</t>
+  </si>
+  <si>
+    <t>Région</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>Territoires ultramarins</t>
+  </si>
+  <si>
+    <t>Grand EST</t>
   </si>
 </sst>
 </file>
@@ -64,7 +109,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +127,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,7 +160,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,18 +194,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -469,399 +541,490 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0E1C7A-28F4-4BA5-8520-58C7B8A3878F}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <f t="shared" ref="A2:F15" ca="1" si="0">SUMIF($V$26:$V$128,$A2,A$26:A$128)</f>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B2,A$26:A$128)</f>
         <v>5330189</v>
       </c>
-      <c r="B2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4650127</v>
-      </c>
       <c r="C2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3496477</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B2,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>856182</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B2,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B2,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F2" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B2,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B2,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B3,A$26:A$128)</f>
         <v>1839206</v>
       </c>
-      <c r="B3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1558797</v>
-      </c>
       <c r="C3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1165220</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B3,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>347696</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B3,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B3,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B3,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B3,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B4,A$26:A$128)</f>
         <v>2291650</v>
       </c>
-      <c r="B4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2030006</v>
-      </c>
       <c r="C4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1563869</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B4,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>425601</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B4,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B4,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B4,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B4,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B5,A$26:A$128)</f>
         <v>1640780</v>
       </c>
-      <c r="B5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1419703</v>
-      </c>
       <c r="C5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1081055</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B5,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>308343</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B5,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B5,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B5,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B5,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B6,A$26:A$128)</f>
         <v>302853</v>
       </c>
-      <c r="B6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>256831</v>
-      </c>
       <c r="C6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>201282</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B6,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>61838</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B6,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B6,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B6,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B6,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B7,A$26:A$128)</f>
         <v>3338261</v>
       </c>
-      <c r="B7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2857392</v>
-      </c>
       <c r="C7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2109323</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B7,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>574600</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B7,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B7,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B7,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B7,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B8,A$26:A$128)</f>
         <v>3243489</v>
       </c>
-      <c r="B8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2622386</v>
-      </c>
       <c r="C8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1889820</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B8,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>500079</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B8,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B8,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B8,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B8,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B9,A$26:A$128)</f>
         <v>6724597</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>6005402</v>
-      </c>
       <c r="C9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>4424040</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B9,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>800247</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B9,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B9,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B9,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B9,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B10,A$26:A$128)</f>
         <v>2120025</v>
       </c>
-      <c r="B10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1778618</v>
-      </c>
       <c r="C10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1304027</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B10,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>315656</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B10,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B10,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B10,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B10,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B11,A$26:A$128)</f>
         <v>4184227</v>
       </c>
-      <c r="B11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3640813</v>
-      </c>
       <c r="C11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2784489</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B11,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>806964</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B11,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B11,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B11,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B11,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B12,A$26:A$128)</f>
         <v>4214084</v>
       </c>
-      <c r="B12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3747947</v>
-      </c>
       <c r="C12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2972031</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B12,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>839343</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B12,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B12,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B12,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B12,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B13,A$26:A$128)</f>
         <v>2414424</v>
       </c>
-      <c r="B13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2181026</v>
-      </c>
       <c r="C13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1695099</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B13,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>469626</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B13,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B13,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B13,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B13,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B14,A$26:A$128)</f>
         <v>3604389</v>
       </c>
-      <c r="B14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>3233627</v>
-      </c>
       <c r="C14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>2460244</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B14,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>641573</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B14,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B14,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B14,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B14,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B15,A$26:A$128)</f>
         <v>1246078</v>
       </c>
-      <c r="B15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>1061981</v>
-      </c>
       <c r="C15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>788724</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B15,B$26:B$128)</f>
+        <v>0</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>183065</v>
+        <f ca="1">SUMIF($V$26:$V$128,$B15,C$26:C$128)</f>
+        <v>0</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">SUMIF($V$26:$V$128,$B15,D$26:D$128)</f>
         <v>0</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
+        <f ca="1">SUMIF($V$26:$V$128,$B15,E$26:E$128)</f>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f ca="1">SUMIF($V$26:$V$128,$B15,F$26:F$128)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>